--- a/tracer_reference_summary.xlsx
+++ b/tracer_reference_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2025_TT_psf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C7A7F-9A64-974A-80C7-086DE5F1EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0DF95-367C-AF46-A8C6-DE3FD7EDBE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="500" windowWidth="31900" windowHeight="20500" xr2:uid="{4F26DE28-BA76-6142-B650-B1FADB0DCFF3}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="25040" windowHeight="28300" xr2:uid="{4F26DE28-BA76-6142-B650-B1FADB0DCFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>citation</t>
   </si>
@@ -44,69 +44,18 @@
     <t>doi</t>
   </si>
   <si>
-    <t>nh4no3_added</t>
-  </si>
-  <si>
     <t>pot_volume</t>
   </si>
   <si>
     <t>pot_mass</t>
   </si>
   <si>
-    <t>He_etal_2009</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/jpe/rtp015</t>
-  </si>
-  <si>
-    <t>He_etal_2003</t>
-  </si>
-  <si>
-    <t>Hogh-Jensen_2006</t>
-  </si>
-  <si>
-    <t>Ledgard_etal_1985</t>
-  </si>
-  <si>
-    <t>Newman_1988</t>
-  </si>
-  <si>
-    <t>Stern_1993</t>
-  </si>
-  <si>
-    <t>Kohls_etal_1994</t>
-  </si>
-  <si>
-    <t>Moyer-Henry_etal_2006</t>
-  </si>
-  <si>
-    <t>Sierra_Nygren_2006</t>
-  </si>
-  <si>
-    <t>vanKessel_etal_1994</t>
-  </si>
-  <si>
-    <t>Herridge_etal_2008</t>
-  </si>
-  <si>
-    <t>Knowles_Blackburn_1993</t>
-  </si>
-  <si>
-    <t>Malezieux_etal_2009</t>
-  </si>
-  <si>
-    <t>Unkovich_etal_2001</t>
-  </si>
-  <si>
     <t>Giller_etal_1991</t>
   </si>
   <si>
     <t>JohansenJensen_1996</t>
   </si>
   <si>
-    <t>Tomm_etal_1994</t>
-  </si>
-  <si>
     <t>He_etal_2004</t>
   </si>
   <si>
@@ -119,27 +68,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Hobbie_Hobbie_2008</t>
-  </si>
-  <si>
-    <t>Hobbie_Hobbie_2006</t>
-  </si>
-  <si>
-    <t>Hogberg_1997</t>
-  </si>
-  <si>
-    <t>Robinson_2001</t>
-  </si>
-  <si>
-    <t>Michalesen_etal_1998</t>
-  </si>
-  <si>
-    <t>Schmidt_Steward_1997</t>
-  </si>
-  <si>
-    <t>He_2002</t>
-  </si>
-  <si>
     <t>Hamel_etal_1991b</t>
   </si>
   <si>
@@ -164,19 +92,7 @@
     <t>Haystead_etal_1988</t>
   </si>
   <si>
-    <t>Leake_etal_2004</t>
-  </si>
-  <si>
-    <t>Newman_1992</t>
-  </si>
-  <si>
-    <t>Selosse_etal_2006</t>
-  </si>
-  <si>
     <t>Frey_etal_1998</t>
-  </si>
-  <si>
-    <t>Mader_etal_1993</t>
   </si>
   <si>
     <t>Mader_etal_2000</t>
@@ -295,9 +211,6 @@
     </r>
   </si>
   <si>
-    <t>Wittich_etal_2014</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0.7 mg </t>
     </r>
@@ -406,29 +319,6 @@
   </si>
   <si>
     <t xml:space="preserve">20 mL of 500 ppm N Hoagland with 715 mg </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">52.3 mg </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>N per plant (?? seems wrong given other exp doses… experiment doesn't list the molarity of the ammonium nitrate)</t>
-    </r>
   </si>
   <si>
     <t>https://doi.org/10.1007/BF00011806</t>
@@ -493,13 +383,191 @@
   </si>
   <si>
     <t>2 kg</t>
+  </si>
+  <si>
+    <t>dose_per_plant_mg</t>
+  </si>
+  <si>
+    <t>20 mg 15N per plant x 3 doses</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2135/cropsci1992.0011183X003200040032x</t>
+  </si>
+  <si>
+    <t>n_added</t>
+  </si>
+  <si>
+    <t>20 mg 15N per plant x 3 doses as K15NO3</t>
+  </si>
+  <si>
+    <t>field experiment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1469-8137.1988.tb04182.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 mL K15NO3 </t>
+  </si>
+  <si>
+    <t>40 mg 15N per plant</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1469-8137.2006.01648.x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1469-8137.2004.01137.x</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 mg </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N as 15ammonium sulfate or K15NO3</t>
+    </r>
+  </si>
+  <si>
+    <t>ammonium sulfate or potassium nitrate</t>
+  </si>
+  <si>
+    <t>6 mg 15N per donor plant</t>
+  </si>
+  <si>
+    <t>5 L</t>
+  </si>
+  <si>
+    <t>3 kg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1469-8137.2005.01437.x</t>
+  </si>
+  <si>
+    <t>5 mg 15N per plant</t>
+  </si>
+  <si>
+    <t>2 mmol 14NH414NO3</t>
+  </si>
+  <si>
+    <t>5 mg 15N pulse at end, 5-10 mL of 14NH414NO3 "as needed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 mg of K15NNO3 </t>
+  </si>
+  <si>
+    <t>6.9 L</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0038-0717(94)90096-5</t>
+  </si>
+  <si>
+    <t>75 mg 15 N per plant</t>
+  </si>
+  <si>
+    <t>ammonium sulfate and potassium nitrate</t>
+  </si>
+  <si>
+    <t>4.5 kg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0038-0717(95)00117-4</t>
+  </si>
+  <si>
+    <t>2 ml 1, 2, 3, and 4 week doses as 15(NH4)2SO4 and K15NO3</t>
+  </si>
+  <si>
+    <t>10 mL of 1.5% (15NH4)2SO4 solution</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11104-008-9751-9</t>
+  </si>
+  <si>
+    <t>0.73 kg</t>
+  </si>
+  <si>
+    <t>20 mL of a 515 ppm N solution containing 1.43 g 15ammonium15nitrate</t>
+  </si>
+  <si>
+    <t>14.3 mg 15N per plant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">52.3 mg </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>N per plant (?? experiment doesn't list the molarity of the ammonium nitrate)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1046/j.1469-8137.2000.00615.x </t>
+  </si>
+  <si>
+    <t>0.35 L</t>
+  </si>
+  <si>
+    <t>1.5 mg 15N per plant</t>
+  </si>
+  <si>
+    <t>100 mL of 1 mM N solution as 15NH4Cl or glycine-a13C, 15N</t>
+  </si>
+  <si>
+    <t>ammonium chloride</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.soilbio.2006.11.019</t>
+  </si>
+  <si>
+    <t>Rains_2007</t>
+  </si>
+  <si>
+    <t>Sierra_Desfontaines_2009</t>
+  </si>
+  <si>
+    <t>11 mg 15N per plant, applied topically to leaves</t>
+  </si>
+  <si>
+    <t>5 mL K15NO3 per pot</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1071/CP08215</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,6 +601,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -561,13 +637,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,10 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -915,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C9A8BC-638E-1842-A343-E07C94A9233D}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,833 +1001,640 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F2">
         <v>2.8</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
         <v>1990</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="122" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="88" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
         <v>1998</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>1992</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1993</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>2.44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>1991</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>1991</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1991</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1992</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>1988</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="I11" s="2">
+        <v>80.5</v>
+      </c>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>2003</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>1994</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2">
+        <v>40</v>
+      </c>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="2">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
         <v>2009</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2">
+        <v>14.3</v>
+      </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.5</v>
+      </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2">
-        <v>1997</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="2">
+        <v>11</v>
+      </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1994</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1993</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1994</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1993</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1988</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1992</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1997</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1993</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1994</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2014</v>
-      </c>
+      <c r="K20" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
-    <sortCondition ref="A3:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="A3:A20"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{4C8980B5-090E-C34A-8E66-B2EDD4093595}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{B419AA04-0545-6041-9B98-13CA0A48C7F3}"/>
-    <hyperlink ref="C6" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{35612F83-C295-4743-BEC4-3B43E8BEA82C}"/>
-    <hyperlink ref="C7" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{FB4269B2-2672-DF40-9C9E-9464988E3C49}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{B419AA04-0545-6041-9B98-13CA0A48C7F3}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="Persistent link using digital object identifier" xr:uid="{35612F83-C295-4743-BEC4-3B43E8BEA82C}"/>
+    <hyperlink ref="C7" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{FB4269B2-2672-DF40-9C9E-9464988E3C49}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{FF6068EC-9B23-BE44-A399-0BA038A10F10}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{65A54476-C1A6-FD49-AE49-7D71FAC81DF8}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{A6BE1570-9839-944E-9B0A-47A801D6D6AC}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{B5137295-7C09-8347-92C5-E6EF90DCECEA}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{67D5B3E2-0E6B-504A-A534-31FD95F6A312}"/>
+    <hyperlink ref="C15" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{20899F4A-124A-C24A-B69F-315E84152B3D}"/>
+    <hyperlink ref="C16" r:id="rId10" tooltip="Persistent link using digital object identifier" xr:uid="{9671DFF6-FCEB-314A-9BC5-424AB94EA74A}"/>
+    <hyperlink ref="C18" r:id="rId11" display="https://doi.org/10.1046/j.1469-8137.2000.00615.x" xr:uid="{A243E89D-93C3-574D-958C-79810BF4BE99}"/>
+    <hyperlink ref="C19" r:id="rId12" tooltip="Persistent link using digital object identifier" xr:uid="{68338853-CF48-9443-826F-3A6CD367B998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
